--- a/ura/krimatom.xlsx
+++ b/ura/krimatom.xlsx
@@ -8,21 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\My Language\ura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43850341-DE8F-45F0-9AAA-D6C7EABC09B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0527C87-D900-4698-BC86-D937EE8A2693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phonetics" sheetId="1" r:id="rId1"/>
     <sheet name="Grammar" sheetId="2" r:id="rId2"/>
     <sheet name="Vocabulary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="223">
   <si>
     <t>M.Syl (CV)</t>
   </si>
@@ -629,12 +639,176 @@
     <t>ɲ</t>
   </si>
   <si>
+    <t>Fricative</t>
+  </si>
+  <si>
+    <t>ʃ</t>
+  </si>
+  <si>
+    <t>ʒ</t>
+  </si>
+  <si>
+    <t>ɕ</t>
+  </si>
+  <si>
+    <t>ʑ</t>
+  </si>
+  <si>
+    <t>ç</t>
+  </si>
+  <si>
+    <t>ʝ</t>
+  </si>
+  <si>
+    <t>/ʃʲ/</t>
+  </si>
+  <si>
+    <t>/ʒʲ/</t>
+  </si>
+  <si>
+    <t>/xʲ/</t>
+  </si>
+  <si>
+    <t>/ɣʲ/</t>
+  </si>
+  <si>
+    <t>Approximant</t>
+  </si>
+  <si>
+    <t>(w)</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Vowels</t>
+  </si>
+  <si>
+    <t>X-axis</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Y-axis</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>ɨ</t>
+  </si>
+  <si>
+    <t>ʉ</t>
+  </si>
+  <si>
+    <t>j+ɯ</t>
+  </si>
+  <si>
+    <t>[Lab]+y</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Near-Close</t>
+  </si>
+  <si>
+    <t>ɪ</t>
+  </si>
+  <si>
+    <t>Close-Mid</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Open-Mid</t>
+  </si>
+  <si>
+    <t>Near-Open</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>j+ɑ</t>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be at</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magical</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(DAT)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>koj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh/c</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh/l</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ng/ñ</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF767171"/>
+        <rFont val="Sarasa Fixed K"/>
+        <family val="2"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+  </si>
+  <si>
+    <t>eh/é</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>eo/è</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>oh/ó</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gh/q</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>/</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FF767171"/>
         <rFont val="Sarasa Fixed K"/>
         <family val="2"/>
@@ -643,7 +817,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FF767171"/>
         <rFont val="Sarasa Term SC"/>
         <family val="2"/>
@@ -651,165 +825,12 @@
       <t>ʲ/</t>
     </r>
   </si>
-  <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>Fricative</t>
-  </si>
-  <si>
-    <t>ʃ</t>
-  </si>
-  <si>
-    <t>ʒ</t>
-  </si>
-  <si>
-    <t>ɕ</t>
-  </si>
-  <si>
-    <t>ʑ</t>
-  </si>
-  <si>
-    <t>ç</t>
-  </si>
-  <si>
-    <t>ʝ</t>
-  </si>
-  <si>
-    <t>sh</t>
-  </si>
-  <si>
-    <t>zh</t>
-  </si>
-  <si>
-    <t>/ʃʲ/</t>
-  </si>
-  <si>
-    <t>/ʒʲ/</t>
-  </si>
-  <si>
-    <t>/xʲ/</t>
-  </si>
-  <si>
-    <t>/ɣʲ/</t>
-  </si>
-  <si>
-    <t>gh</t>
-  </si>
-  <si>
-    <t>Approximant</t>
-  </si>
-  <si>
-    <t>(w)</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>Vowels</t>
-  </si>
-  <si>
-    <t>X-axis</t>
-  </si>
-  <si>
-    <t>Front</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Y-axis</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>ɨ</t>
-  </si>
-  <si>
-    <t>ʉ</t>
-  </si>
-  <si>
-    <t>j+ɯ</t>
-  </si>
-  <si>
-    <t>[Lab]+y</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>Near-Close</t>
-  </si>
-  <si>
-    <t>ɪ</t>
-  </si>
-  <si>
-    <r>
-      <t>e+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF767171"/>
-        <rFont val="Sarasa Fixed K"/>
-        <family val="2"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-  </si>
-  <si>
-    <t>Close-Mid</t>
-  </si>
-  <si>
-    <t>Mid</t>
-  </si>
-  <si>
-    <t>eo</t>
-  </si>
-  <si>
-    <t>Open-Mid</t>
-  </si>
-  <si>
-    <t>eh</t>
-  </si>
-  <si>
-    <t>oh</t>
-  </si>
-  <si>
-    <t>Near-Open</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>j+ɑ</t>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Be at</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magical</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>(DAT)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,20 +889,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF767171"/>
-      <name val="Sarasa Term SC"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF767171"/>
-      <name val="Sarasa Fixed K"/>
       <family val="2"/>
     </font>
     <font>
@@ -890,6 +899,55 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Sarasa Term SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF767171"/>
+      <name val="Sarasa Term SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF767171"/>
+      <name val="Sarasa Fixed K"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Sarasa Term SC"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Sarasa Term SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF767171"/>
+      <name val="Sarasa Term SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Sarasa Fixed K"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF767171"/>
+      <name val="Sarasa Fixed K"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -960,7 +1018,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1797,11 +1855,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="medium">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="medium">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1884,75 +1968,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1960,48 +1984,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2049,46 +2031,76 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2115,120 +2127,114 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2308,6 +2314,210 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2617,64 +2827,63 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="14.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="14.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="23" width="14.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="24"/>
+    <col min="1" max="5" width="8.77734375" style="24"/>
+    <col min="6" max="13" width="8.77734375" style="5"/>
+    <col min="14" max="16384" width="8.77734375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="98"/>
-      <c r="U1" s="102" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="74"/>
+      <c r="U1" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="V1" s="103"/>
-      <c r="W1" s="104"/>
-    </row>
-    <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="101"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="80"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="77"/>
       <c r="U2" s="25" t="s">
         <v>138</v>
       </c>
@@ -2683,35 +2892,35 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="164"/>
+      <c r="B3" s="165" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="108" t="s">
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="169" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="111" t="s">
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="172" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="87" t="s">
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="R3" s="88"/>
+      <c r="R3" s="176"/>
       <c r="U3" s="25" t="s">
         <v>145</v>
       </c>
@@ -2720,43 +2929,43 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="177" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="178"/>
+      <c r="C4" s="179" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93" t="s">
+      <c r="D4" s="180"/>
+      <c r="E4" s="181" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="83" t="s">
+      <c r="F4" s="182"/>
+      <c r="G4" s="179" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="93" t="s">
+      <c r="H4" s="180"/>
+      <c r="I4" s="181" t="s">
         <v>151</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="95" t="s">
+      <c r="J4" s="183"/>
+      <c r="K4" s="184" t="s">
         <v>152</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="185"/>
+      <c r="M4" s="179" t="s">
         <v>153</v>
       </c>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93" t="s">
+      <c r="N4" s="180"/>
+      <c r="O4" s="181" t="s">
         <v>154</v>
       </c>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="83" t="s">
+      <c r="P4" s="182"/>
+      <c r="Q4" s="179" t="s">
         <v>155</v>
       </c>
-      <c r="R4" s="84"/>
+      <c r="R4" s="182"/>
       <c r="U4" s="25" t="s">
         <v>156</v>
       </c>
@@ -2765,49 +2974,49 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+    <row r="5" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="175" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="186"/>
+      <c r="C5" s="187" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="28" t="s">
+      <c r="E5" s="189"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="187" t="s">
         <v>160</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="34" t="s">
+      <c r="I5" s="189"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="191" t="s">
         <v>161</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="192" t="s">
         <v>162</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="193" t="s">
         <v>163</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="194" t="s">
         <v>164</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="190" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="187" t="s">
         <v>165</v>
       </c>
-      <c r="R5" s="38"/>
+      <c r="R5" s="195"/>
       <c r="U5" s="25" t="s">
         <v>166</v>
       </c>
@@ -2816,516 +3025,514 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="30" t="s">
+    <row r="6" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="196"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="30" t="s">
+      <c r="E6" s="199"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="198" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="42" t="s">
+      <c r="I6" s="199"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="201" t="s">
         <v>168</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="202" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="203" t="s">
         <v>170</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="204" t="s">
         <v>171</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="P6" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="205" t="s">
         <v>172</v>
       </c>
-      <c r="R6" s="47"/>
+      <c r="R6" s="206"/>
       <c r="U6" s="25"/>
       <c r="V6" s="26"/>
       <c r="W6" s="27"/>
     </row>
-    <row r="7" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+    <row r="7" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="175" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="31" t="s">
+      <c r="B7" s="186"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="31" t="s">
+      <c r="E7" s="189"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="37" t="s">
+      <c r="I7" s="189"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="190"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="194" t="s">
         <v>174</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="49" t="s">
+      <c r="O7" s="189"/>
+      <c r="P7" s="208" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="38"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="53"/>
-    </row>
-    <row r="8" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="39" t="s">
+      <c r="Q7" s="209"/>
+      <c r="R7" s="195"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="33"/>
+    </row>
+    <row r="8" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="198" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="39" t="s">
+      <c r="E8" s="199"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="198" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="45" t="s">
+      <c r="I8" s="199"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="210"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="204" t="s">
+        <v>222</v>
+      </c>
+      <c r="O8" s="199"/>
+      <c r="P8" s="200" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q8" s="211"/>
+      <c r="R8" s="206"/>
+    </row>
+    <row r="9" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="175" t="s">
         <v>175</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="41" t="s">
+      <c r="B9" s="186"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="189" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="190" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="187" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="188" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="189" t="s">
         <v>176</v>
       </c>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="47"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87" t="s">
+      <c r="J9" s="188" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32" t="s">
+      <c r="K9" s="191" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="193" t="s">
+        <v>180</v>
+      </c>
+      <c r="N9" s="194" t="s">
+        <v>181</v>
+      </c>
+      <c r="O9" s="189" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" s="190" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="187"/>
+      <c r="R9" s="190"/>
+    </row>
+    <row r="10" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="196"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F10" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G10" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H10" s="198" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="M9" s="36" t="s">
+      <c r="I10" s="199" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" s="198" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="201" t="s">
         <v>182</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="L10" s="202" t="s">
         <v>183</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="M10" s="203" t="s">
+        <v>184</v>
+      </c>
+      <c r="N10" s="204" t="s">
+        <v>185</v>
+      </c>
+      <c r="O10" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="P9" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="33"/>
-    </row>
-    <row r="10" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="K10" s="42" t="s">
+      <c r="P10" s="200" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="200"/>
+    </row>
+    <row r="11" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="175" t="s">
         <v>186</v>
       </c>
-      <c r="L10" s="43" t="s">
+      <c r="B11" s="186"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="188" t="s">
         <v>187</v>
       </c>
-      <c r="M10" s="44" t="s">
+      <c r="E11" s="189"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="187" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="188"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="207"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="188" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="189"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="209"/>
+      <c r="R11" s="195"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="196"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="198" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="199"/>
+      <c r="F12" s="200"/>
+      <c r="G12" s="177" t="s">
         <v>188</v>
       </c>
-      <c r="N10" s="45" t="s">
+      <c r="H12" s="198"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="199"/>
+      <c r="P12" s="200"/>
+      <c r="Q12" s="211"/>
+      <c r="R12" s="206"/>
+    </row>
+    <row r="15" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="O10" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" s="41" t="s">
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="160"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="161"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="163"/>
+    </row>
+    <row r="17" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="64"/>
+      <c r="G17" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="41"/>
-    </row>
-    <row r="11" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="H17" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31" t="s">
+      <c r="I17" s="67"/>
+      <c r="J17" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="81"/>
+      <c r="L17" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="38"/>
-    </row>
-    <row r="12" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="30" t="s">
+      <c r="M17" s="81"/>
+    </row>
+    <row r="18" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="O12" s="40"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="47"/>
-    </row>
-    <row r="13" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="91" t="s">
+      <c r="G18" s="65"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="144"/>
+    </row>
+    <row r="19" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="88"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="85"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="86"/>
-    </row>
-    <row r="17" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="28"/>
-      <c r="G17" s="29" t="s">
+      <c r="G19" s="81"/>
+      <c r="H19" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="146" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="H17" s="87" t="s">
+      <c r="K19" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="89"/>
-      <c r="J17" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89" t="s">
+      <c r="L19" s="147" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="53"/>
+    </row>
+    <row r="20" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="68"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="148" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="M17" s="88"/>
-    </row>
-    <row r="18" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="30" t="s">
+      <c r="K20" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="86"/>
-    </row>
-    <row r="19" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="87" t="s">
+      <c r="L20" s="150" t="s">
         <v>199</v>
       </c>
-      <c r="G19" s="88"/>
-      <c r="H19" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="36" t="s">
+      <c r="M20" s="58"/>
+    </row>
+    <row r="21" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="G21" s="81"/>
+      <c r="H21" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="L19" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" s="33"/>
-    </row>
-    <row r="20" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="44" t="s">
+      <c r="I21" s="53"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="53"/>
+    </row>
+    <row r="22" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="68"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" s="58"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="58"/>
+    </row>
+    <row r="23" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="43" t="s">
+      <c r="G23" s="81"/>
+      <c r="H23" s="145" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="55"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="68"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="148" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="60"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="152" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="L20" s="60" t="s">
+      <c r="G25" s="81"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="53"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="53"/>
+    </row>
+    <row r="26" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="68"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="154" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" s="58"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="58"/>
+    </row>
+    <row r="27" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="M20" s="41"/>
-    </row>
-    <row r="21" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="87" t="s">
+      <c r="G27" s="81"/>
+      <c r="H27" s="155" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="53"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="151" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="68"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="I28" s="58"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="152" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="G21" s="88"/>
-      <c r="H21" s="34" t="s">
+      <c r="G29" s="72"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="157"/>
+    </row>
+    <row r="30" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="68"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="58"/>
+    </row>
+    <row r="31" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="33"/>
-    </row>
-    <row r="22" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="42" t="s">
+      <c r="G31" s="81"/>
+      <c r="H31" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="41"/>
-    </row>
-    <row r="23" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="87" t="s">
+      <c r="I31" s="53"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="155" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" s="53"/>
+    </row>
+    <row r="32" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="68"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="K26" s="41"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="41"/>
-    </row>
-    <row r="27" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="G27" s="88"/>
-      <c r="H27" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="85"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="62" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="G29" s="84"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="67"/>
-    </row>
-    <row r="30" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="85"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="41"/>
-    </row>
-    <row r="31" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" s="88"/>
-      <c r="H31" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="M31" s="33"/>
-    </row>
-    <row r="32" spans="6:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="85"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="M32" s="41"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="156" t="s">
+        <v>207</v>
+      </c>
+      <c r="M32" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -3359,8 +3566,9 @@
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="F27:G28"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3372,7 +3580,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3384,39 +3592,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="121" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="69" t="s">
+      <c r="G1" s="89"/>
+      <c r="H1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
+      <c r="A2" s="86"/>
       <c r="B2" s="26" t="s">
         <v>69</v>
       </c>
@@ -3435,7 +3643,7 @@
       <c r="G2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="90" t="s">
         <v>71</v>
       </c>
       <c r="J2" s="25" t="s">
@@ -3455,19 +3663,19 @@
       <c r="A3" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="125" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="125" t="s">
+      <c r="E3" s="94"/>
+      <c r="F3" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="123"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="91"/>
       <c r="J3" s="25" t="s">
         <v>80</v>
       </c>
@@ -3488,26 +3696,26 @@
       <c r="B4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="75"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="123"/>
-      <c r="J4" s="76" t="s">
+      <c r="G4" s="41"/>
+      <c r="H4" s="91"/>
+      <c r="J4" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="30" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3533,7 +3741,7 @@
       <c r="G5" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="123"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
@@ -3557,25 +3765,25 @@
       <c r="G6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="123"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="125" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="125" t="s">
+      <c r="E7" s="94"/>
+      <c r="F7" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="123"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -3599,7 +3807,7 @@
       <c r="G8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="123"/>
+      <c r="H8" s="91"/>
     </row>
     <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -3623,88 +3831,88 @@
       <c r="G9" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="123"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="124"/>
+      <c r="H10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="116"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
     </row>
     <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="45" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="45" t="s">
         <v>118</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="45" t="s">
         <v>120</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="46" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="79"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="79"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="2" t="s">
         <v>123</v>
       </c>
@@ -3713,19 +3921,19 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="79"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="79"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="79" t="s">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>209</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -3735,20 +3943,20 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="45" t="s">
         <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="79"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="79"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="2" t="s">
         <v>21</v>
       </c>
@@ -3757,20 +3965,20 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="79" t="s">
-        <v>218</v>
+      <c r="B18" s="45" t="s">
+        <v>209</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="79"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="79"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="2" t="s">
         <v>21</v>
       </c>
@@ -3779,18 +3987,18 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="79"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="79"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="45" t="s">
         <v>129</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -3801,18 +4009,18 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="79"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="79"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="79" t="s">
+      <c r="F20" s="45" t="s">
         <v>131</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -3823,64 +4031,64 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="79"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="79"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="79" t="s">
+      <c r="F21" s="45" t="s">
         <v>134</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="81" t="s">
+      <c r="H21" s="47" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="79"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="79"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="81"/>
+      <c r="H22" s="47"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="79"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="79"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="81"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="79"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="79"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="81"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="82"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="82"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="82"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
@@ -3899,7 +4107,7 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3912,8 +4120,8 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3927,102 +4135,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="162"/>
-      <c r="E2" s="164" t="s">
+      <c r="D2" s="136"/>
+      <c r="E2" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="164"/>
-      <c r="G2" s="166" t="s">
+      <c r="F2" s="138"/>
+      <c r="G2" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="166"/>
+      <c r="H2" s="140"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="127" t="s">
+      <c r="B4" s="143"/>
+      <c r="C4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="127" t="s">
+      <c r="E4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="129" t="s">
+      <c r="H4" s="97" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="168"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="124"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="92"/>
     </row>
     <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="127" t="s">
+      <c r="B6" s="133"/>
+      <c r="C6" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="127" t="s">
+      <c r="E6" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="160" t="s">
+      <c r="F6" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="127" t="s">
+      <c r="G6" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H6" s="97" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -4039,25 +4247,25 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="158"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="124"/>
-      <c r="J7" s="155" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="92"/>
+      <c r="J7" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="156" t="s">
+      <c r="K7" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="157" t="s">
+      <c r="L7" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="149" t="s">
-        <v>219</v>
+      <c r="M7" s="123" t="s">
+        <v>210</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>25</v>
@@ -4065,65 +4273,65 @@
       <c r="O7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="150" t="s">
+      <c r="P7" s="124" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="154"/>
-      <c r="C8" s="127" t="s">
+      <c r="B8" s="128"/>
+      <c r="C8" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="127" t="s">
+      <c r="E8" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="127" t="s">
+      <c r="G8" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="129" t="s">
-        <v>220</v>
-      </c>
-      <c r="J8" s="155"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="149"/>
+      <c r="H8" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="129"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="123"/>
       <c r="N8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="151"/>
+      <c r="P8" s="125"/>
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="124"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="149"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="92"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="123"/>
       <c r="N9" s="13" t="s">
         <v>35</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="152"/>
+      <c r="P9" s="126"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J10" s="15" t="s">
@@ -4168,16 +4376,16 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
       <c r="J13" s="15" t="s">
         <v>16</v>
       </c>
@@ -4196,18 +4404,18 @@
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108" t="s">
+      <c r="D14" s="108"/>
+      <c r="E14" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111" t="s">
+      <c r="F14" s="112"/>
+      <c r="G14" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="116"/>
       <c r="J14" s="15" t="s">
         <v>7</v>
       </c>
@@ -4226,12 +4434,12 @@
         <v>5</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="144"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="118"/>
       <c r="J15" s="15" t="s">
         <v>7</v>
       </c>
@@ -4246,26 +4454,26 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="145" t="s">
+      <c r="A16" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="127" t="s">
+      <c r="B16" s="120"/>
+      <c r="C16" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="129" t="s">
+      <c r="D16" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="127" t="s">
+      <c r="E16" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="129" t="s">
+      <c r="H16" s="97" t="s">
         <v>53</v>
       </c>
       <c r="J16" s="15" t="s">
@@ -4282,14 +4490,14 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="124"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="92"/>
       <c r="J17" s="15" t="s">
         <v>9</v>
       </c>
@@ -4304,26 +4512,26 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="127" t="s">
+      <c r="B18" s="103"/>
+      <c r="C18" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="129" t="s">
+      <c r="D18" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="127" t="s">
+      <c r="E18" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="129" t="s">
+      <c r="F18" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="127" t="s">
+      <c r="G18" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="129" t="s">
+      <c r="H18" s="97" t="s">
         <v>62</v>
       </c>
       <c r="J18" s="20" t="s">
@@ -4340,48 +4548,48 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="124"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="92"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="127" t="s">
+      <c r="B20" s="99"/>
+      <c r="C20" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="127" t="s">
+      <c r="D20" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="129" t="s">
+      <c r="F20" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="127" t="s">
+      <c r="G20" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="129" t="s">
+      <c r="H20" s="97" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="124"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -4441,7 +4649,7 @@
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ura/krimatom.xlsx
+++ b/ura/krimatom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\My Language\ura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0527C87-D900-4698-BC86-D937EE8A2693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A181CB36-2790-47BC-9EC7-3DF8BFF1733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3504" yWindow="2304" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phonetics" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="224">
   <si>
     <t>M.Syl (CV)</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>jo</t>
-  </si>
-  <si>
-    <t>(Caus)</t>
   </si>
   <si>
     <t>jɑ</t>
@@ -202,9 +199,6 @@
   </si>
   <si>
     <t>(VIA)</t>
-  </si>
-  <si>
-    <t>Appear</t>
   </si>
   <si>
     <t>oj</t>
@@ -771,20 +765,6 @@
   <si>
     <t>ng/ñ</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF767171"/>
-        <rFont val="Sarasa Fixed K"/>
-        <family val="2"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
   </si>
   <si>
     <t>eh/é</t>
@@ -825,12 +805,38 @@
       <t>ʲ/</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>e+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF767171"/>
+        <rFont val="Sarasa Fixed K"/>
+        <family val="2"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+  </si>
+  <si>
+    <t>(CAUS)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Var)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,24 +907,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Sarasa Term SC"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF767171"/>
-      <name val="Sarasa Term SC"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF767171"/>
-      <name val="Sarasa Fixed K"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Sarasa Term SC"/>
@@ -948,6 +936,13 @@
       <color rgb="FF767171"/>
       <name val="Sarasa Fixed K"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Sarasa Term SC"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1885,7 +1880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2031,78 +2026,207 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2127,7 +2251,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2316,208 +2464,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2827,8 +2783,8 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView zoomScale="127" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2839,700 +2795,700 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="117"/>
+      <c r="U1" s="121" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="122"/>
+      <c r="W1" s="123"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="120"/>
+      <c r="U2" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="74"/>
-      <c r="U1" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="V1" s="79"/>
-      <c r="W1" s="80"/>
-    </row>
-    <row r="2" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="77"/>
-      <c r="U2" s="25" t="s">
-        <v>138</v>
       </c>
       <c r="V2" s="26"/>
       <c r="W2" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="124" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="164"/>
-      <c r="B3" s="165" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="166" t="s">
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="169" t="s">
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="172" t="s">
+      <c r="R3" s="101"/>
+      <c r="U3" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="175" t="s">
-        <v>144</v>
-      </c>
-      <c r="R3" s="176"/>
-      <c r="U3" s="25" t="s">
-        <v>145</v>
       </c>
       <c r="V3" s="26"/>
       <c r="W3" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="96" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="177" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="179" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="180"/>
-      <c r="E4" s="181" t="s">
+      <c r="H4" s="110"/>
+      <c r="I4" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="182"/>
-      <c r="G4" s="179" t="s">
+      <c r="J4" s="112"/>
+      <c r="K4" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="180"/>
-      <c r="I4" s="181" t="s">
+      <c r="L4" s="114"/>
+      <c r="M4" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="J4" s="183"/>
-      <c r="K4" s="184" t="s">
+      <c r="N4" s="110"/>
+      <c r="O4" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="L4" s="185"/>
-      <c r="M4" s="179" t="s">
+      <c r="P4" s="97"/>
+      <c r="Q4" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="N4" s="180"/>
-      <c r="O4" s="181" t="s">
+      <c r="R4" s="97"/>
+      <c r="U4" s="25" t="s">
         <v>154</v>
-      </c>
-      <c r="P4" s="182"/>
-      <c r="Q4" s="179" t="s">
-        <v>155</v>
-      </c>
-      <c r="R4" s="182"/>
-      <c r="U4" s="25" t="s">
-        <v>156</v>
       </c>
       <c r="V4" s="26"/>
       <c r="W4" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="102"/>
+      <c r="C5" s="55" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175" t="s">
+      <c r="D5" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="187" t="s">
+      <c r="H5" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="57"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="188" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="187" t="s">
+      <c r="L5" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="H5" s="188" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="189"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="191" t="s">
+      <c r="M5" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="L5" s="192" t="s">
+      <c r="N5" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="M5" s="193" t="s">
+      <c r="O5" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="N5" s="194" t="s">
+      <c r="R5" s="63"/>
+      <c r="U5" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="O5" s="189" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="190" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q5" s="187" t="s">
-        <v>165</v>
-      </c>
-      <c r="R5" s="195"/>
-      <c r="U5" s="25" t="s">
-        <v>166</v>
       </c>
       <c r="V5" s="26"/>
       <c r="W5" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="98"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="66"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="L6" s="69" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="196"/>
-      <c r="B6" s="197"/>
-      <c r="C6" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="198" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="199"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="177" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="198" t="s">
+      <c r="M6" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="N6" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="199"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="201" t="s">
-        <v>168</v>
-      </c>
-      <c r="L6" s="202" t="s">
-        <v>169</v>
-      </c>
-      <c r="M6" s="203" t="s">
+      <c r="Q6" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="N6" s="204" t="s">
-        <v>171</v>
-      </c>
-      <c r="O6" s="199" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="200" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q6" s="205" t="s">
-        <v>172</v>
-      </c>
-      <c r="R6" s="206"/>
+      <c r="R6" s="73"/>
       <c r="U6" s="25"/>
       <c r="V6" s="26"/>
       <c r="W6" s="27"/>
     </row>
     <row r="7" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="175" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="188" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="188" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="189"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="207"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="194" t="s">
-        <v>174</v>
-      </c>
-      <c r="O7" s="189"/>
-      <c r="P7" s="208" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="195"/>
+      <c r="A7" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="O7" s="57"/>
+      <c r="P7" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="63"/>
       <c r="U7" s="31"/>
       <c r="V7" s="32"/>
       <c r="W7" s="33"/>
     </row>
     <row r="8" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="198" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="199"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="198" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="199"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="177"/>
-      <c r="N8" s="204" t="s">
-        <v>222</v>
-      </c>
-      <c r="O8" s="199"/>
-      <c r="P8" s="200" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="O8" s="66"/>
+      <c r="P8" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="73"/>
+    </row>
+    <row r="9" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="102"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="58"/>
+    </row>
+    <row r="10" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="N10" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="67"/>
+    </row>
+    <row r="11" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="100" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="63"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="98"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="66"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="73"/>
+    </row>
+    <row r="15" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="107"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
+    </row>
+    <row r="17" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="195"/>
+      <c r="G17" s="196" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17" s="102"/>
+      <c r="J17" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="101"/>
+      <c r="L17" s="102" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" s="101"/>
+    </row>
+    <row r="18" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="197" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="198"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="99"/>
+    </row>
+    <row r="19" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="101"/>
+      <c r="H19" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" s="58"/>
+    </row>
+    <row r="20" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="98"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" s="67"/>
+    </row>
+    <row r="21" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="101"/>
+      <c r="H21" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" s="58"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="58"/>
+    </row>
+    <row r="22" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="98"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="I22" s="67"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="67"/>
+    </row>
+    <row r="23" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="101"/>
+      <c r="H23" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="60"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="69"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="100" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="101"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="58"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="58"/>
+    </row>
+    <row r="26" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="98"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="Q8" s="211"/>
-      <c r="R8" s="206"/>
-    </row>
-    <row r="9" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="175" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="189" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="190" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="187" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="188" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="189" t="s">
-        <v>176</v>
-      </c>
-      <c r="J9" s="188" t="s">
-        <v>177</v>
-      </c>
-      <c r="K9" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="L9" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" s="193" t="s">
-        <v>180</v>
-      </c>
-      <c r="N9" s="194" t="s">
-        <v>181</v>
-      </c>
-      <c r="O9" s="189" t="s">
-        <v>95</v>
-      </c>
-      <c r="P9" s="190" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="187"/>
-      <c r="R9" s="190"/>
-    </row>
-    <row r="10" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="196"/>
-      <c r="B10" s="197"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="199" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="200" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="177" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="198" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="199" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" s="198" t="s">
+      <c r="K26" s="67"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="67"/>
+    </row>
+    <row r="27" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="100" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" s="101"/>
+      <c r="H27" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="58"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="98"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="K10" s="201" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="202" t="s">
-        <v>183</v>
-      </c>
-      <c r="M10" s="203" t="s">
-        <v>184</v>
-      </c>
-      <c r="N10" s="204" t="s">
-        <v>185</v>
-      </c>
-      <c r="O10" s="199" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" s="200" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="200"/>
-    </row>
-    <row r="11" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="175" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="186"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="188" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="189"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="187" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="188"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="207"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="188" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" s="189"/>
-      <c r="P11" s="190"/>
-      <c r="Q11" s="209"/>
-      <c r="R11" s="195"/>
-    </row>
-    <row r="12" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="196"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="198" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="199"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="177" t="s">
-        <v>188</v>
-      </c>
-      <c r="H12" s="198"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="200"/>
-      <c r="M12" s="177"/>
-      <c r="N12" s="198" t="s">
-        <v>79</v>
-      </c>
-      <c r="O12" s="199"/>
-      <c r="P12" s="200"/>
-      <c r="Q12" s="211"/>
-      <c r="R12" s="206"/>
-    </row>
-    <row r="15" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="158" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="160"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="161"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="163"/>
-    </row>
-    <row r="17" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="64"/>
-      <c r="G17" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="H17" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="81"/>
-      <c r="L17" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="M17" s="81"/>
-    </row>
-    <row r="18" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="144"/>
-    </row>
-    <row r="19" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="G19" s="81"/>
-      <c r="H19" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="146" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="K19" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="L19" s="147" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" s="53"/>
-    </row>
-    <row r="20" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="68"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="149" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="K20" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="L20" s="150" t="s">
-        <v>199</v>
-      </c>
-      <c r="M20" s="58"/>
-    </row>
-    <row r="21" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="53"/>
-    </row>
-    <row r="22" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="68"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="59" t="s">
+      <c r="I28" s="67"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="I22" s="58"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="58"/>
-    </row>
-    <row r="23" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="145" t="s">
+    </row>
+    <row r="29" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="97"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="95"/>
+    </row>
+    <row r="30" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="98"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="67"/>
+    </row>
+    <row r="31" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="100" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="101"/>
+      <c r="H31" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" s="58"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="55"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="151" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="68"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="148" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="60"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="152" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="G25" s="81"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="153" t="s">
-        <v>83</v>
-      </c>
-      <c r="K25" s="53"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="53"/>
-    </row>
-    <row r="26" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="68"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="154" t="s">
-        <v>219</v>
-      </c>
-      <c r="K26" s="58"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="58"/>
-    </row>
-    <row r="27" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="G27" s="81"/>
-      <c r="H27" s="155" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="151" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="68"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="156" t="s">
-        <v>218</v>
-      </c>
-      <c r="I28" s="58"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="152" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="71" t="s">
+      <c r="M31" s="58"/>
+    </row>
+    <row r="32" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="98"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="I32" s="67"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="G29" s="72"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="157"/>
-    </row>
-    <row r="30" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="68"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="58"/>
-    </row>
-    <row r="31" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="G31" s="81"/>
-      <c r="H31" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="I31" s="53"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="155" t="s">
-        <v>75</v>
-      </c>
-      <c r="M31" s="53"/>
-    </row>
-    <row r="32" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="68"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="I32" s="58"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="156" t="s">
-        <v>207</v>
-      </c>
-      <c r="M32" s="58"/>
+      <c r="M32" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -3579,36 +3535,38 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="24" customWidth="1"/>
+    <col min="11" max="13" width="11.109375" style="24" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89" t="s">
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="89"/>
+      <c r="G1" s="140"/>
       <c r="H1" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>5</v>
@@ -3620,439 +3578,438 @@
         <v>13</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
+      <c r="A2" s="137"/>
       <c r="B2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="90" t="s">
+      <c r="K2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="L2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="M2" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="144" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="145"/>
+      <c r="D3" s="144" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="E3" s="145"/>
+      <c r="F3" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="93" t="s">
+      <c r="G3" s="145"/>
+      <c r="H3" s="142"/>
+      <c r="J3" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="93" t="s">
+      <c r="K3" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="91"/>
-      <c r="J3" s="25" t="s">
+      <c r="L3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="M3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="26" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>84</v>
-      </c>
       <c r="B4" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="142"/>
+      <c r="J4" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="91"/>
-      <c r="J4" s="42" t="s">
+      <c r="L4" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="M4" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="29" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="D5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="G5" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="H5" s="142"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="B6" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="91"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="D6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="E6" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="142"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="B7" s="144" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="91"/>
-    </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="C7" s="145"/>
+      <c r="D7" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="E7" s="145"/>
+      <c r="F7" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="93" t="s">
+      <c r="G7" s="145"/>
+      <c r="H7" s="142"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="93" t="s">
+      <c r="B8" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="91"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="142"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="26" t="s">
+      <c r="B9" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="142"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="91"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="B10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="91"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="D10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="F10" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="92"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="143"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="135"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
-    </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="C14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="D14" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="F14" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="H14" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="45"/>
       <c r="G15" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="45"/>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="45"/>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="45" t="s">
-        <v>129</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
       <c r="B22" s="45"/>
       <c r="C22" s="1"/>
@@ -4062,7 +4019,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="47"/>
     </row>
-    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="45"/>
       <c r="C23" s="1"/>
@@ -4072,7 +4029,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="47"/>
     </row>
-    <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="45"/>
       <c r="C24" s="1"/>
@@ -4082,7 +4039,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="47"/>
     </row>
-    <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="48"/>
       <c r="C25" s="3"/>
@@ -4120,11 +4077,11 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
@@ -4134,464 +4091,467 @@
     <col min="17" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="136"/>
-      <c r="E2" s="138" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="138"/>
-      <c r="G2" s="140" t="s">
+      <c r="F2" s="189"/>
+      <c r="G2" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="140"/>
-    </row>
-    <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="191"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-    </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="95" t="s">
+      <c r="B4" s="194"/>
+      <c r="C4" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="148" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="142"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="92"/>
-    </row>
-    <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="193"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="143"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="95" t="s">
+      <c r="B6" s="184"/>
+      <c r="C6" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="134" t="s">
+      <c r="F6" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="148" t="s">
+        <v>222</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="183"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="143"/>
+      <c r="J7" s="180" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="181" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="92"/>
-      <c r="J7" s="129" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="130" t="s">
+      <c r="L7" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="131" t="s">
+      <c r="M7" s="174" t="s">
+        <v>208</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="123" t="s">
-        <v>210</v>
-      </c>
-      <c r="N7" s="10" t="s">
+      <c r="O7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="P7" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="124" t="s">
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="178" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="B8" s="179"/>
+      <c r="C8" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="95" t="s">
+      <c r="D8" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="E8" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="F8" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="G8" s="146" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="148" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="180"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="97" t="s">
-        <v>211</v>
-      </c>
-      <c r="J8" s="129"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="P8" s="176"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="178"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="143"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="182"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="125"/>
-    </row>
-    <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="127"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="92"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="13" t="s">
+      <c r="O9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="126"/>
-    </row>
-    <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="177"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="18" t="s">
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="15" t="s">
+    <row r="13" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="157" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="J13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="J13" s="15" t="s">
-        <v>16</v>
-      </c>
       <c r="K13" s="19" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49"/>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="111" t="s">
+      <c r="D14" s="159"/>
+      <c r="E14" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="115" t="s">
+      <c r="F14" s="163"/>
+      <c r="G14" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="116"/>
+      <c r="H14" s="167"/>
       <c r="J14" s="15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
       <c r="J15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="171"/>
+      <c r="C16" s="146" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="146" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="148" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="148" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K16" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="172"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="143"/>
+      <c r="J17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="M17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="97" t="s">
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="154"/>
+      <c r="C18" s="146" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="146" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="148" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="97" t="s">
+      <c r="H18" s="148" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="121"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="92"/>
-      <c r="J17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="21" t="s">
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="155"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="143"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="149" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="150"/>
+      <c r="C20" s="146" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="148" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="146" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="23" t="s">
+      <c r="G20" s="146" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="92"/>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="97" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="97" t="s">
+      <c r="H20" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="97" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="100"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="92"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="151"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="143"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J11:M18">
+    <sortCondition ref="J11:J18"/>
+  </sortState>
   <mergeCells count="55">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>

--- a/ura/krimatom.xlsx
+++ b/ura/krimatom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\My Language\ura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A181CB36-2790-47BC-9EC7-3DF8BFF1733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB58B1F-B929-4AB2-B627-718CD64D0A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3504" yWindow="2304" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phonetics" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="230">
   <si>
     <t>M.Syl (CV)</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>ɹe</t>
-  </si>
-  <si>
     <t>(Quest)</t>
   </si>
   <si>
@@ -82,16 +79,10 @@
     <t>One</t>
   </si>
   <si>
-    <t>ɹo</t>
-  </si>
-  <si>
     <t>Possible</t>
   </si>
   <si>
     <t>jo</t>
-  </si>
-  <si>
-    <t>jɑ</t>
   </si>
   <si>
     <t>-</t>
@@ -129,15 +120,9 @@
     <t>Dn</t>
   </si>
   <si>
-    <t>wɑ</t>
-  </si>
-  <si>
     <t>Think</t>
   </si>
   <si>
-    <t>ɹɑ</t>
-  </si>
-  <si>
     <t>(Prop)</t>
   </si>
   <si>
@@ -153,9 +138,6 @@
     <t>あそこ</t>
   </si>
   <si>
-    <t>ɑw</t>
-  </si>
-  <si>
     <t>Own</t>
   </si>
   <si>
@@ -183,9 +165,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>ɑɹ</t>
-  </si>
-  <si>
     <t>Kill</t>
   </si>
   <si>
@@ -195,9 +174,6 @@
     <t>(LAT)</t>
   </si>
   <si>
-    <t>eɹ</t>
-  </si>
-  <si>
     <t>(VIA)</t>
   </si>
   <si>
@@ -219,9 +195,6 @@
     <t>(COM)</t>
   </si>
   <si>
-    <t>oɹ</t>
-  </si>
-  <si>
     <t>(LOC)</t>
   </si>
   <si>
@@ -237,9 +210,6 @@
     <t>(INS)</t>
   </si>
   <si>
-    <t>ɑj</t>
-  </si>
-  <si>
     <t>(EGRE)</t>
   </si>
   <si>
@@ -297,17 +267,6 @@
     <t>n</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-  </si>
-  <si>
     <t>Conj</t>
   </si>
   <si>
@@ -356,15 +315,6 @@
     <t>Refl</t>
   </si>
   <si>
-    <t>!/wɑ</t>
-  </si>
-  <si>
-    <t>!/ɹɑ</t>
-  </si>
-  <si>
-    <t>!/jɑ</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -377,18 +327,9 @@
     <t>Para</t>
   </si>
   <si>
-    <t>im/bɯ</t>
-  </si>
-  <si>
-    <t>ʃ/ʒ</t>
-  </si>
-  <si>
     <t>ŋ</t>
   </si>
   <si>
-    <t>ik/ɡi</t>
-  </si>
-  <si>
     <t>Affix</t>
   </si>
   <si>
@@ -416,9 +357,6 @@
     <t>Meaning</t>
   </si>
   <si>
-    <t>jɔ</t>
-  </si>
-  <si>
     <t>Imp</t>
   </si>
   <si>
@@ -426,9 +364,6 @@
   </si>
   <si>
     <t>(?~:k)</t>
-  </si>
-  <si>
-    <t>ɯʃ</t>
   </si>
   <si>
     <t>Adv</t>
@@ -736,51 +671,51 @@
   </si>
   <si>
     <t>N/A</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Be at</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Magical</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>(DAT)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>koj</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>sh/c</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>zh/l</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ng/ñ</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>eh/é</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>eo/è</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>oh/ó</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gh/q</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -821,15 +756,105 @@
   </si>
   <si>
     <t>(CAUS)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>(Var)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>g</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jai</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>!/wa</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>!/ra</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>!/ja</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>im/bu</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>c/l</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ik/ɡi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ó</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>è</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>é</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>aw</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>aj</t>
+  </si>
+  <si>
+    <t>wa</t>
+  </si>
+  <si>
+    <t>uc</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ñ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -894,12 +919,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -943,6 +962,13 @@
       <name val="Sarasa Term SC"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Sarasa Fixed K"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1880,7 +1906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2026,99 +2052,369 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2128,202 +2424,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2350,130 +2502,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2784,7 +2813,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView zoomScale="127" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:I18"/>
+      <selection sqref="A1:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2795,231 +2824,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="117"/>
-      <c r="U1" s="121" t="s">
-        <v>135</v>
-      </c>
-      <c r="V1" s="122"/>
-      <c r="W1" s="123"/>
-    </row>
-    <row r="2" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="120"/>
+      <c r="A1" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="102"/>
+      <c r="U1" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="107"/>
+      <c r="W1" s="108"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="105"/>
       <c r="U2" s="25" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="V2" s="26"/>
       <c r="W2" s="27" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="124" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="127" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="R3" s="101"/>
+        <v>119</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="119"/>
       <c r="U3" s="25" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="V3" s="26"/>
       <c r="W3" s="27" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B4" s="52"/>
-      <c r="C4" s="96" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="114"/>
-      <c r="M4" s="96" t="s">
-        <v>151</v>
-      </c>
-      <c r="N4" s="110"/>
-      <c r="O4" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="R4" s="97"/>
+      <c r="C4" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="121"/>
+      <c r="E4" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="123"/>
+      <c r="G4" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="121"/>
+      <c r="I4" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="127"/>
+      <c r="K4" s="128" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="129"/>
+      <c r="M4" s="120" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="121"/>
+      <c r="O4" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="123"/>
       <c r="U4" s="25" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="V4" s="26"/>
       <c r="W4" s="27" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="102"/>
+      <c r="A5" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="124"/>
       <c r="C5" s="55" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="58"/>
       <c r="G5" s="55" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I5" s="57"/>
       <c r="J5" s="56"/>
       <c r="K5" s="59" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="L5" s="60" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="M5" s="61" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="N5" s="62" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P5" s="58" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="55" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="R5" s="63"/>
       <c r="U5" s="25" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="V5" s="26"/>
       <c r="W5" s="27" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="103"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="51" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E6" s="66"/>
       <c r="F6" s="67"/>
       <c r="G6" s="51" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I6" s="66"/>
       <c r="J6" s="65"/>
       <c r="K6" s="68" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="L6" s="69" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="N6" s="71" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="O6" s="66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="72" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="R6" s="73"/>
       <c r="U6" s="25"/>
@@ -3027,19 +3056,19 @@
       <c r="W6" s="27"/>
     </row>
     <row r="7" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="102"/>
+      <c r="A7" s="118" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="124"/>
       <c r="C7" s="55"/>
       <c r="D7" s="56" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="58"/>
       <c r="G7" s="55"/>
       <c r="H7" s="56" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I7" s="57"/>
       <c r="J7" s="56"/>
@@ -3047,11 +3076,11 @@
       <c r="L7" s="58"/>
       <c r="M7" s="55"/>
       <c r="N7" s="62" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="O7" s="57"/>
       <c r="P7" s="75" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="76"/>
       <c r="R7" s="63"/>
@@ -3060,17 +3089,17 @@
       <c r="W7" s="33"/>
     </row>
     <row r="8" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="103"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="51"/>
       <c r="D8" s="65" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8" s="66"/>
       <c r="F8" s="67"/>
       <c r="G8" s="51"/>
       <c r="H8" s="65" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I8" s="66"/>
       <c r="J8" s="65"/>
@@ -3078,118 +3107,118 @@
       <c r="L8" s="67"/>
       <c r="M8" s="51"/>
       <c r="N8" s="71" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="O8" s="66"/>
       <c r="P8" s="67" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="78"/>
       <c r="R8" s="73"/>
     </row>
     <row r="9" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="102"/>
+      <c r="A9" s="118" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="124"/>
       <c r="C9" s="55"/>
       <c r="D9" s="56"/>
       <c r="E9" s="57" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K9" s="59" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L9" s="60" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M9" s="61" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="N9" s="62" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="O9" s="57" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="P9" s="58" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="55"/>
       <c r="R9" s="58"/>
     </row>
     <row r="10" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="103"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="51"/>
       <c r="D10" s="65"/>
       <c r="E10" s="66" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H10" s="65" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I10" s="66" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="J10" s="65" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="K10" s="68" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="L10" s="69" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M10" s="70" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="N10" s="71" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="O10" s="66" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="P10" s="67" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="51"/>
       <c r="R10" s="67"/>
     </row>
     <row r="11" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="102"/>
+      <c r="A11" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="124"/>
       <c r="C11" s="55"/>
       <c r="D11" s="56" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="58"/>
       <c r="G11" s="55" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="57"/>
@@ -3198,7 +3227,7 @@
       <c r="L11" s="58"/>
       <c r="M11" s="55"/>
       <c r="N11" s="56" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O11" s="57"/>
       <c r="P11" s="58"/>
@@ -3206,16 +3235,16 @@
       <c r="R11" s="63"/>
     </row>
     <row r="12" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
-      <c r="B12" s="103"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="51"/>
       <c r="D12" s="65" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E12" s="66"/>
       <c r="F12" s="67"/>
       <c r="G12" s="51" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="66"/>
@@ -3224,7 +3253,7 @@
       <c r="L12" s="67"/>
       <c r="M12" s="51"/>
       <c r="N12" s="65" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O12" s="66"/>
       <c r="P12" s="67"/>
@@ -3232,107 +3261,107 @@
       <c r="R12" s="73"/>
     </row>
     <row r="15" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="106"/>
+      <c r="F15" s="130" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="132"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="107"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="109"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="135"/>
     </row>
     <row r="17" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="195"/>
-      <c r="G17" s="196" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="100" t="s">
-        <v>189</v>
-      </c>
-      <c r="I17" s="102"/>
-      <c r="J17" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="K17" s="101"/>
-      <c r="L17" s="102" t="s">
-        <v>190</v>
-      </c>
-      <c r="M17" s="101"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="118" t="s">
+        <v>170</v>
+      </c>
+      <c r="I17" s="124"/>
+      <c r="J17" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="119"/>
+      <c r="L17" s="124" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" s="119"/>
     </row>
     <row r="18" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="197" t="s">
-        <v>191</v>
-      </c>
-      <c r="G18" s="198"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="99"/>
+      <c r="F18" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="99"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="136"/>
     </row>
     <row r="19" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="100" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="101"/>
+      <c r="F19" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="119"/>
       <c r="H19" s="83" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I19" s="84" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K19" s="60" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L19" s="85" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M19" s="58"/>
     </row>
     <row r="20" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="98"/>
-      <c r="G20" s="99"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="136"/>
       <c r="H20" s="86" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I20" s="87" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="K20" s="69" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="L20" s="88" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="M20" s="67"/>
     </row>
     <row r="21" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="100" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="101"/>
+      <c r="F21" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="119"/>
       <c r="H21" s="59" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="I21" s="58"/>
       <c r="J21" s="55"/>
@@ -3341,10 +3370,10 @@
       <c r="M21" s="58"/>
     </row>
     <row r="22" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="98"/>
-      <c r="G22" s="99"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="136"/>
       <c r="H22" s="68" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="I22" s="67"/>
       <c r="J22" s="64"/>
@@ -3353,96 +3382,96 @@
       <c r="M22" s="67"/>
     </row>
     <row r="23" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="100" t="s">
-        <v>200</v>
-      </c>
-      <c r="G23" s="101"/>
+      <c r="F23" s="118" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="119"/>
       <c r="H23" s="83" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I23" s="60"/>
       <c r="J23" s="55"/>
       <c r="K23" s="58"/>
       <c r="L23" s="74"/>
       <c r="M23" s="89" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="98"/>
-      <c r="G24" s="99"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="136"/>
       <c r="H24" s="86" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I24" s="69"/>
       <c r="J24" s="64"/>
       <c r="K24" s="67"/>
       <c r="L24" s="77"/>
       <c r="M24" s="90" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="100" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" s="101"/>
+      <c r="F25" s="118" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="119"/>
       <c r="H25" s="74"/>
       <c r="I25" s="58"/>
       <c r="J25" s="91" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K25" s="58"/>
       <c r="L25" s="74"/>
       <c r="M25" s="58"/>
     </row>
     <row r="26" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="98"/>
-      <c r="G26" s="99"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="136"/>
       <c r="H26" s="77"/>
       <c r="I26" s="67"/>
       <c r="J26" s="92" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="K26" s="67"/>
       <c r="L26" s="77"/>
       <c r="M26" s="67"/>
     </row>
     <row r="27" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="G27" s="101"/>
+      <c r="F27" s="118" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="119"/>
       <c r="H27" s="93" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I27" s="58"/>
       <c r="J27" s="55"/>
       <c r="K27" s="58"/>
       <c r="L27" s="74"/>
       <c r="M27" s="89" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="98"/>
-      <c r="G28" s="99"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="136"/>
       <c r="H28" s="94" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="I28" s="67"/>
       <c r="J28" s="64"/>
       <c r="K28" s="67"/>
       <c r="L28" s="77"/>
       <c r="M28" s="90" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="97"/>
+      <c r="F29" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="123"/>
       <c r="H29" s="54"/>
       <c r="I29" s="95"/>
       <c r="J29" s="53"/>
@@ -3451,8 +3480,8 @@
       <c r="M29" s="95"/>
     </row>
     <row r="30" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="98"/>
-      <c r="G30" s="99"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="136"/>
       <c r="H30" s="77"/>
       <c r="I30" s="67"/>
       <c r="J30" s="64"/>
@@ -3461,43 +3490,50 @@
       <c r="M30" s="67"/>
     </row>
     <row r="31" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="100" t="s">
-        <v>204</v>
-      </c>
-      <c r="G31" s="101"/>
+      <c r="F31" s="118" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" s="119"/>
       <c r="H31" s="59" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="I31" s="58"/>
       <c r="J31" s="55"/>
       <c r="K31" s="58"/>
       <c r="L31" s="93" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M31" s="58"/>
     </row>
     <row r="32" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="98"/>
-      <c r="G32" s="99"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="136"/>
       <c r="H32" s="68" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="I32" s="67"/>
       <c r="J32" s="64"/>
       <c r="K32" s="67"/>
       <c r="L32" s="94" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="M32" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="F15:M16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="L17:M18"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
@@ -3508,21 +3544,14 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="F15:M16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="F25:G26"/>
-    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:R3"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3535,8 +3564,8 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3550,23 +3579,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="139" t="s">
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140" t="s">
+      <c r="E1" s="143"/>
+      <c r="F1" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="140"/>
+      <c r="G1" s="144"/>
       <c r="H1" s="35" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>5</v>
@@ -3575,438 +3604,438 @@
         <v>6</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="137"/>
+      <c r="A2" s="141"/>
       <c r="B2" s="26" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="141" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="H2" s="145" t="s">
+        <v>59</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="144" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="144" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="145"/>
-      <c r="F3" s="144" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="142"/>
+        <v>64</v>
+      </c>
+      <c r="B3" s="148" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="149"/>
+      <c r="D3" s="148" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="149"/>
+      <c r="F3" s="148" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="149"/>
+      <c r="H3" s="146"/>
       <c r="J3" s="25" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="26" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E4" s="41"/>
-      <c r="F4" s="26" t="s">
-        <v>84</v>
+      <c r="F4" s="199" t="s">
+        <v>228</v>
       </c>
       <c r="G4" s="41"/>
-      <c r="H4" s="142"/>
+      <c r="H4" s="146"/>
       <c r="J4" s="42" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>92</v>
+        <v>229</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="142"/>
+        <v>82</v>
+      </c>
+      <c r="H5" s="146"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="142"/>
+        <v>19</v>
+      </c>
+      <c r="H6" s="146"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="144" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="144" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="144" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="145"/>
-      <c r="H7" s="142"/>
+        <v>89</v>
+      </c>
+      <c r="B7" s="148" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="149"/>
+      <c r="D7" s="148" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="149"/>
+      <c r="F7" s="148" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="149"/>
+      <c r="H7" s="146"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="142"/>
+        <v>19</v>
+      </c>
+      <c r="H8" s="146"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>92</v>
+        <v>229</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="142"/>
+        <v>82</v>
+      </c>
+      <c r="H9" s="146"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="143"/>
+        <v>212</v>
+      </c>
+      <c r="H10" s="147"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="135"/>
+      <c r="A13" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="139"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F15" s="45"/>
       <c r="G15" s="2" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F17" s="45"/>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F18" s="45"/>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="1" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4064,7 +4093,7 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4078,7 +4107,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+      <selection activeCell="J7" sqref="J7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4092,268 +4121,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="189" t="s">
+      <c r="D2" s="156"/>
+      <c r="E2" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="189"/>
-      <c r="G2" s="191" t="s">
+      <c r="F2" s="158"/>
+      <c r="G2" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="191"/>
+      <c r="H2" s="160"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="52"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="146" t="s">
+      <c r="B4" s="163"/>
+      <c r="C4" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="151" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="G4" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="146" t="s">
+      <c r="H4" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="148" t="s">
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="147"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="173" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="193"/>
-      <c r="B5" s="194"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="143"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
+      <c r="B6" s="174"/>
+      <c r="C6" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="146" t="s">
+      <c r="D6" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="148" t="s">
+      <c r="E6" s="151" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="146" t="s">
+      <c r="G6" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="185" t="s">
+      <c r="H6" s="150" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="146" t="s">
+      <c r="M6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="148" t="s">
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="173"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="147"/>
+      <c r="J7" s="170" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="171" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="172" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="164" t="s">
+        <v>189</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="168" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="169"/>
+      <c r="C8" s="151" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="150" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="151" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="151" t="s">
         <v>222</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="183"/>
-      <c r="B7" s="184"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="143"/>
-      <c r="J7" s="180" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="181" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="182" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="174" t="s">
-        <v>208</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="175" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="178" t="s">
+      <c r="H8" s="150" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="170"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="179"/>
-      <c r="C8" s="146" t="s">
+      <c r="O8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="P8" s="166"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="168"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="147"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="O9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="148" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="146" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="148" t="s">
-        <v>209</v>
-      </c>
-      <c r="J8" s="180"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="182"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="176"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="143"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="174"/>
-      <c r="N9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="177"/>
+      <c r="P9" s="167"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J10" s="15" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J11" s="80" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="K11" s="81" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L11" s="82" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="M11" s="79" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J12" s="15" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="157" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="157"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
+      <c r="A13" s="155" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
       <c r="J13" s="15" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4361,29 +4390,29 @@
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="159"/>
-      <c r="E14" s="162" t="s">
+      <c r="D14" s="176"/>
+      <c r="E14" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="163"/>
-      <c r="G14" s="166" t="s">
+      <c r="F14" s="180"/>
+      <c r="G14" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="167"/>
+      <c r="H14" s="184"/>
       <c r="J14" s="15" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4391,182 +4420,193 @@
         <v>5</v>
       </c>
       <c r="B15" s="52"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="186"/>
       <c r="J15" s="15" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="K15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="188"/>
+      <c r="C16" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="E16" s="151" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="150" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="171"/>
-      <c r="C16" s="146" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="148" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="146" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="148" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="148" t="s">
-        <v>221</v>
+      <c r="H16" s="150" t="s">
+        <v>202</v>
       </c>
       <c r="J16" s="80" t="s">
         <v>7</v>
       </c>
       <c r="K16" s="81" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="L16" s="82" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M16" s="79" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="172"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="143"/>
+      <c r="A17" s="189"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="147"/>
       <c r="J17" s="15" t="s">
         <v>7</v>
       </c>
       <c r="K17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="196"/>
+      <c r="C18" s="151" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="151" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="150" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="151" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="150" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="153" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="154"/>
-      <c r="C18" s="146" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="146" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="148" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="146" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="148" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="143"/>
+      <c r="A19" s="197"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="147"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="149" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="150"/>
-      <c r="C20" s="146" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="148" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="146" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="148" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="148" t="s">
-        <v>65</v>
+      <c r="A20" s="191" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="192"/>
+      <c r="C20" s="151" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="151" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="150" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="151" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" s="150" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="151"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="143"/>
+      <c r="A21" s="193"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="147"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J11:M18">
     <sortCondition ref="J11:J18"/>
   </sortState>
   <mergeCells count="55">
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="M7:M9"/>
     <mergeCell ref="P7:P9"/>
     <mergeCell ref="A8:B9"/>
@@ -4583,33 +4623,22 @@
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ura/krimatom.xlsx
+++ b/ura/krimatom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\My Language\ura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB58B1F-B929-4AB2-B627-718CD64D0A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBE8D27-5C1F-4982-BA8F-488906040DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phonetics" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="244">
   <si>
     <t>M.Syl (CV)</t>
   </si>
@@ -144,16 +144,10 @@
     <t>Bright</t>
   </si>
   <si>
-    <t>s(ə)</t>
-  </si>
-  <si>
     <t>Small</t>
   </si>
   <si>
     <t>M.Syl (VC)</t>
-  </si>
-  <si>
-    <t>t(ə)</t>
   </si>
   <si>
     <t>Large</t>
@@ -854,6 +848,70 @@
   </si>
   <si>
     <t>q</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>wo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ro</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ow</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>to express; to talk</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>wa</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>s(è)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t(è)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ras(è)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>deep, essencial</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ja</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>aw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>to write down</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>to carve</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1039,7 +1097,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -1315,37 +1373,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1361,37 +1388,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1902,11 +1898,95 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1932,578 +2012,560 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2812,728 +2874,721 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="127" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.77734375" style="24"/>
+    <col min="1" max="5" width="8.77734375" style="13"/>
     <col min="6" max="13" width="8.77734375" style="5"/>
-    <col min="14" max="16384" width="8.77734375" style="24"/>
+    <col min="14" max="16384" width="8.77734375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="110"/>
+      <c r="U1" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" s="115"/>
+      <c r="W1" s="116"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="113"/>
+      <c r="U2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="102"/>
-      <c r="U1" s="106" t="s">
+      <c r="V2" s="15"/>
+      <c r="W2" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="107"/>
-      <c r="W1" s="108"/>
-    </row>
-    <row r="2" spans="1:23" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="105"/>
-      <c r="U2" s="25" t="s">
+    </row>
+    <row r="3" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27" t="s">
+      <c r="C3" s="117" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50" t="s">
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112" t="s">
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="115" t="s">
+      <c r="R3" s="94"/>
+      <c r="U3" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="118" t="s">
+      <c r="V3" s="15"/>
+      <c r="W3" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="119"/>
-      <c r="U3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="V3" s="26"/>
-      <c r="W3" s="27" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="89" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="120" t="s">
+      <c r="F4" s="90"/>
+      <c r="G4" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="122" t="s">
+      <c r="H4" s="103"/>
+      <c r="I4" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="120" t="s">
+      <c r="J4" s="105"/>
+      <c r="K4" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="121"/>
-      <c r="I4" s="122" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="127"/>
-      <c r="K4" s="128" t="s">
+      <c r="N4" s="103"/>
+      <c r="O4" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="L4" s="129"/>
-      <c r="M4" s="120" t="s">
+      <c r="P4" s="90"/>
+      <c r="Q4" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="N4" s="121"/>
-      <c r="O4" s="122" t="s">
+      <c r="R4" s="90"/>
+      <c r="U4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="120" t="s">
+      <c r="V4" s="15"/>
+      <c r="W4" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="R4" s="123"/>
-      <c r="U4" s="25" t="s">
+    </row>
+    <row r="5" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="V4" s="26"/>
-      <c r="W4" s="27" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="44" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="D5" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="55" t="s">
+      <c r="H5" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="46"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="L5" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="R5" s="52"/>
+      <c r="U5" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="V5" s="15"/>
+      <c r="W5" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="91"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="56" t="s">
+      <c r="I6" s="55"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="O6" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="N5" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="R5" s="63"/>
-      <c r="U5" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="V5" s="26"/>
-      <c r="W5" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="M6" s="70" t="s">
+      <c r="Q6" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="R6" s="62"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="O6" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q6" s="72" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="R6" s="73"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="27"/>
-    </row>
-    <row r="7" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="O7" s="46"/>
+      <c r="P7" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="52"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="8" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="55"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8" s="55"/>
+      <c r="P8" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="62"/>
+    </row>
+    <row r="9" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56" t="s">
+      <c r="B9" s="95"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="47"/>
+    </row>
+    <row r="10" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="91"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="N10" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="56"/>
+    </row>
+    <row r="11" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="95"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="52"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="91"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="62"/>
+    </row>
+    <row r="15" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="99"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="100"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="102"/>
+    </row>
+    <row r="17" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="81"/>
+      <c r="G17" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="95"/>
+      <c r="J17" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" s="94"/>
+    </row>
+    <row r="18" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="84"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="92"/>
+    </row>
+    <row r="19" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="94"/>
+      <c r="H19" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="O7" s="57"/>
-      <c r="P7" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="63"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="33"/>
-    </row>
-    <row r="8" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="65" t="s">
+      <c r="J19" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="47"/>
+    </row>
+    <row r="20" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="91"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="O8" s="66"/>
-      <c r="P8" s="67" t="s">
+      <c r="J20" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" s="56"/>
+    </row>
+    <row r="21" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="94"/>
+      <c r="H21" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="47"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="47"/>
+    </row>
+    <row r="22" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="91"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="I22" s="56"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="56"/>
+    </row>
+    <row r="23" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="94"/>
+      <c r="H23" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="91"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="58"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="94"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="47"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="47"/>
+    </row>
+    <row r="26" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="91"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="73"/>
-    </row>
-    <row r="9" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="K9" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="M9" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="N9" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="O9" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="58"/>
-    </row>
-    <row r="10" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="J10" s="65" t="s">
+      <c r="K26" s="56"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="56"/>
+    </row>
+    <row r="27" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="94"/>
+      <c r="H27" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="47"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="91"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="K10" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="M10" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="N10" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="O10" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="P10" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="67"/>
-    </row>
-    <row r="11" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="O11" s="57"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="63"/>
-    </row>
-    <row r="12" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12" s="66"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="73"/>
-    </row>
-    <row r="15" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="130" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="132"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="133"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="135"/>
-    </row>
-    <row r="17" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="96"/>
-      <c r="G17" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="118" t="s">
-        <v>170</v>
-      </c>
-      <c r="I17" s="124"/>
-      <c r="J17" s="118" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="119"/>
-      <c r="L17" s="124" t="s">
-        <v>171</v>
-      </c>
-      <c r="M17" s="119"/>
-    </row>
-    <row r="18" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="98" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="99"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="136"/>
-    </row>
-    <row r="19" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="118" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="119"/>
-      <c r="H19" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="K19" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="L19" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="58"/>
-    </row>
-    <row r="20" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="125"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="K20" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="L20" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="M20" s="67"/>
-    </row>
-    <row r="21" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21" s="119"/>
-      <c r="H21" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="58"/>
-    </row>
-    <row r="22" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="125"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="67"/>
-    </row>
-    <row r="23" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="119"/>
-      <c r="H23" s="83" t="s">
+      <c r="I28" s="56"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="75" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="90"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="80"/>
+    </row>
+    <row r="30" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="91"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="56"/>
+    </row>
+    <row r="31" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="94"/>
+      <c r="H31" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" s="47"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="60"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="125"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="69"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="90" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="118" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="119"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="58"/>
-    </row>
-    <row r="26" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="125"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="92" t="s">
-        <v>197</v>
-      </c>
-      <c r="K26" s="67"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="67"/>
-    </row>
-    <row r="27" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" s="119"/>
-      <c r="H27" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="89" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="125"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="94" t="s">
-        <v>196</v>
-      </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="90" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="120" t="s">
+      <c r="M31" s="47"/>
+    </row>
+    <row r="32" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="91"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" s="56"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="G29" s="123"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="95"/>
-    </row>
-    <row r="30" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="125"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="67"/>
-    </row>
-    <row r="31" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="118" t="s">
-        <v>185</v>
-      </c>
-      <c r="G31" s="119"/>
-      <c r="H31" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="I31" s="58"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="M31" s="58"/>
-    </row>
-    <row r="32" spans="6:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="125"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="I32" s="67"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="94" t="s">
-        <v>186</v>
-      </c>
-      <c r="M32" s="67"/>
+      <c r="M32" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="F25:G26"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="F15:M16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
@@ -3544,12 +3599,19 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="F15:M16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="F27:G28"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3564,517 +3626,517 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="24" customWidth="1"/>
-    <col min="11" max="13" width="11.109375" style="24" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="24"/>
+    <col min="9" max="9" width="14.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="13" customWidth="1"/>
+    <col min="11" max="13" width="11.109375" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="143" t="s">
+      <c r="C1" s="131"/>
+      <c r="D1" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="143"/>
-      <c r="F1" s="144" t="s">
+      <c r="E1" s="132"/>
+      <c r="F1" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="133"/>
+      <c r="H1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="130"/>
+      <c r="B2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141"/>
-      <c r="B2" s="26" t="s">
+      <c r="D2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="J2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="145" t="s">
+      <c r="K2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="L2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="M2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="26" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="B3" s="137" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="148" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="138"/>
+      <c r="F3" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="148" t="s">
+      <c r="G3" s="138"/>
+      <c r="H3" s="135"/>
+      <c r="J3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="135"/>
+      <c r="J4" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="135"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="135"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="138"/>
+      <c r="D7" s="137" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="148" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="149"/>
-      <c r="H3" s="146"/>
-      <c r="J3" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="199" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="146"/>
-      <c r="J4" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="E7" s="138"/>
+      <c r="F7" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="138"/>
+      <c r="H7" s="135"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="135"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="D9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="146"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="146"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="148" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="148" t="s">
+      <c r="H9" s="135"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="149"/>
-      <c r="F7" s="148" t="s">
+      <c r="D10" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="G7" s="149"/>
-      <c r="H7" s="146"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="146"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="146"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="F10" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="136"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="H10" s="147"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="137" t="s">
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="128"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="139"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="C14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="D14" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="F14" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="H14" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="45"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>106</v>
+      <c r="B17" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>188</v>
+      <c r="B18" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="45"/>
+        <v>225</v>
+      </c>
+      <c r="D18" s="34"/>
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="45"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>108</v>
+        <v>225</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="47" t="s">
-        <v>114</v>
+      <c r="H21" s="36" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="45"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="45"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="47"/>
+      <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="45"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="45"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="47"/>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="45"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="45"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="47"/>
+      <c r="H24" s="36"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="48"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="48"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="48"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
@@ -4104,10 +4166,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4116,472 +4178,550 @@
     <col min="10" max="10" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.109375" style="5" customWidth="1"/>
+    <col min="14" max="16" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="158" t="s">
+      <c r="D2" s="173"/>
+      <c r="E2" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="158"/>
-      <c r="G2" s="160" t="s">
+      <c r="F2" s="175"/>
+      <c r="G2" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="160"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="177"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="151" t="s">
+      <c r="B4" s="180"/>
+      <c r="C4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="151" t="s">
-        <v>217</v>
-      </c>
-      <c r="F4" s="150" t="s">
+      <c r="E4" s="139" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="150" t="s">
+      <c r="H4" s="141" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="147"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="173" t="s">
+    <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="179"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="136"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="151" t="s">
+      <c r="B6" s="170"/>
+      <c r="C6" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="150" t="s">
+      <c r="D6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="151" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" s="153" t="s">
+      <c r="E6" s="139" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="151" t="s">
+      <c r="G6" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="150" t="s">
-        <v>203</v>
+      <c r="H6" s="141" t="s">
+        <v>201</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="191" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="173"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="147"/>
-      <c r="J7" s="170" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="171" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="172" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="164" t="s">
-        <v>189</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="165" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="168" t="s">
+    <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="136"/>
+      <c r="J7" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="K7" s="189" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="M7" s="192" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="151" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="150" t="s">
+      <c r="B8" s="168"/>
+      <c r="C8" s="139" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="151" t="s">
+      <c r="E8" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="139" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="141" t="s">
+        <v>188</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="87" t="s">
+        <v>217</v>
+      </c>
+      <c r="M8" s="192" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="136"/>
+      <c r="J9" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" s="190" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="150" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="151" t="s">
-        <v>222</v>
-      </c>
-      <c r="H8" s="150" t="s">
-        <v>190</v>
-      </c>
-      <c r="J8" s="170"/>
-      <c r="K8" s="171"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="166"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="168"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="147"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="167"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J10" s="15" t="s">
+      <c r="M9" s="192" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="L10" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="192" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="M11" s="192" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="L12" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="K11" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="M11" s="79" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="L12" s="17" t="s">
+      <c r="M12" s="192" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="J13" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="L13" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="155" t="s">
+      <c r="M13" s="192" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="J13" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="176"/>
-      <c r="E14" s="179" t="s">
+      <c r="D14" s="152"/>
+      <c r="E14" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="180"/>
-      <c r="G14" s="183" t="s">
+      <c r="F14" s="156"/>
+      <c r="G14" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="184"/>
-      <c r="J14" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="160"/>
+      <c r="J14" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="189" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="M14" s="192" t="s">
+        <v>232</v>
+      </c>
+      <c r="O14" s="181" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="182" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="183" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="186"/>
-      <c r="J15" s="15" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="162"/>
+      <c r="J15" s="85" t="s">
+        <v>233</v>
+      </c>
+      <c r="K15" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="L15" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="M15" s="192" t="s">
+        <v>238</v>
+      </c>
+      <c r="O15" s="184" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="185"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="164"/>
+      <c r="C16" s="139" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="141" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="139" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="141" t="s">
+        <v>200</v>
+      </c>
+      <c r="J16" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="192" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="187" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="188"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="165"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="136"/>
+      <c r="J17" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="L17" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="M17" s="192" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="147"/>
+      <c r="C18" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="139" t="s">
         <v>218</v>
       </c>
-      <c r="K15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="18" t="s">
+      <c r="F18" s="141" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="139" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="86" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="187" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="188"/>
-      <c r="C16" s="151" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="150" t="s">
+      <c r="L18" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="M18" s="192" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="148"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="136"/>
+      <c r="J19" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="K19" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="192" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="143"/>
+      <c r="C20" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="139" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="141" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="139" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="141" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="151" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" s="150" t="s">
+      <c r="M20" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="151" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="150" t="s">
-        <v>202</v>
-      </c>
-      <c r="J16" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="L16" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="79" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="189"/>
-      <c r="B17" s="190"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="147"/>
-      <c r="J17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="195" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="151" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="151" t="s">
-        <v>220</v>
-      </c>
-      <c r="F18" s="150" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="151" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="150" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="197"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="147"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="191" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="192"/>
-      <c r="C20" s="151" t="s">
-        <v>223</v>
-      </c>
-      <c r="D20" s="150" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="151" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="151" t="s">
-        <v>225</v>
-      </c>
-      <c r="H20" s="150" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="193"/>
-      <c r="B21" s="194"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="147"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="144"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="136"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J11:M18">
-    <sortCondition ref="J11:J18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J7:M19">
+    <sortCondition ref="J6:J19"/>
   </sortState>
-  <mergeCells count="55">
+  <mergeCells count="51">
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="A20:B21"/>
@@ -4596,47 +4736,6 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
